--- a/src/main/DataFromExcel/userlogindata.xlsx
+++ b/src/main/DataFromExcel/userlogindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuchander\Api_testing_maven\src\main\DataFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF457CE7-D8B3-409E-AFA6-5C188540B98D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E253D4-D34B-4F85-AC9C-6C842C54B227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>email</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>chandu12345</t>
+  </si>
+  <si>
+    <t>chandu@gmail.com</t>
+  </si>
+  <si>
+    <t>keshav12345</t>
+  </si>
+  <si>
+    <t>supriya@gmail.com</t>
+  </si>
+  <si>
+    <t>supriya12345</t>
   </si>
 </sst>
 </file>
@@ -365,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,11 +405,29 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6700E6FA-C17F-4657-9D87-65D12A4FEC1B}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{89F74CAA-DC71-4D2D-A466-FACD78D5D8EB}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{D956679B-96BF-46C0-90CC-BBADB515F2D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/main/DataFromExcel/userlogindata.xlsx
+++ b/src/main/DataFromExcel/userlogindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuchander\Api_testing_maven\src\main\DataFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E253D4-D34B-4F85-AC9C-6C842C54B227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312FE3B6-42D3-488A-8420-A2820D51AC4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
